--- a/SMBv1_PERU.xlsx
+++ b/SMBv1_PERU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldo Cuneo\Documents\Data Driven Security\My_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59498B7-F39E-4D05-A17D-59FA709FB4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB98CB-F316-42B8-9FDF-8EA655952FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC476FC6-72A2-4C98-81F3-37F169D9C832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC476FC6-72A2-4C98-81F3-37F169D9C832}"/>
   </bookViews>
   <sheets>
     <sheet name="autonomous_system.name" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EBEB42-697C-44B7-A917-36D7A41545F3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,12 @@
       </c>
       <c r="B11" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86944295-B000-4E6D-B7D1-B550B79B68DA}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
